--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,45 +496,8 @@
     <t>response</t>
   </si>
   <si>
-    <t>Form
-QuestionnaireAnswersForm Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
-</t>
-  </si>
-  <si>
-    <t>SDC Questionnaire Response</t>
-  </si>
-  <si>
-    <t>Sets expectations for supported capabilities for questionnaire responses for SDC-conformant systems.</t>
-  </si>
-  <si>
-    <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdcqr-1:Subject SHOULD be present (searching is difficult without subject).  Almost all QuestionnaireResponses should be with respect to some sort of subject. {subject.exists()}sdcqr-2:When repeats=true for a group, it'll be represented with multiple items with the same linkId in the QuestionnaireResponse.  For a question, it'll be represented by a single item with that linkId with multiple answers. {(QuestionnaireResponse|repeat(answer|item)).select(item.where(answer.value.exists()).linkId.isDistinct()).allTrue()}</t>
-  </si>
-  <si>
-    <t>Observation[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>ddccId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>valueId</t>
+    <t>QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
+Bundle</t>
   </si>
 </sst>
 </file>
@@ -839,7 +802,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -850,7 +813,7 @@
   <cols>
     <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -884,7 +847,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2367,7 +2330,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>82</v>
@@ -2987,7 +2950,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3003,19 +2966,19 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3074,16 +3037,16 @@
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -3188,945 +3151,6 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,116 +265,120 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Parameters.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Parameters.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Parameters.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Parameters.parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Operation Parameter</t>
+  </si>
+  <si>
+    <t>A parameter passed to or received from the operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:name}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-1:A parameter must have one and only one of (value, resource, part) {(part.exists() and value.empty() and resource.empty()) or (part.empty() and (value.exists() xor resource.exists()))}</t>
+  </si>
+  <si>
+    <t>Parameters.parameter.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Parameters.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Parameters.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Parameters.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Parameters.parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Operation Parameter</t>
-  </si>
-  <si>
-    <t>A parameter passed to or received from the operation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:name}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-1:A parameter must have one and only one of (value, resource, part) {(part.exists() and value.empty() and resource.empty()) or (part.empty() and (value.exists() xor resource.exists()))}</t>
-  </si>
-  <si>
-    <t>Parameters.parameter.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -811,43 +815,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.08203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.71875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1612,13 +1616,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1669,7 +1673,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -1692,11 +1696,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1715,16 +1719,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1774,7 +1778,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1786,7 +1790,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -1797,11 +1801,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1820,19 +1824,19 @@
         <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -1881,7 +1885,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1893,18 +1897,18 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1927,13 +1931,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1984,7 +1988,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>82</v>
@@ -2007,7 +2011,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2030,13 +2034,13 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2087,7 +2091,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2096,7 +2100,7 @@
         <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>94</v>
@@ -2110,7 +2114,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2133,16 +2137,16 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2192,7 +2196,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2201,7 +2205,7 @@
         <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
@@ -2215,7 +2219,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2241,13 +2245,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2297,7 +2301,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2323,7 +2327,7 @@
         <v>110</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
@@ -2448,13 +2452,13 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2505,7 +2509,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2528,11 +2532,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2551,16 +2555,16 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2610,7 +2614,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2622,7 +2626,7 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -2633,11 +2637,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2656,19 +2660,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -2717,7 +2721,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2729,18 +2733,18 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2763,13 +2767,13 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2781,7 +2785,7 @@
         <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>74</v>
@@ -2820,7 +2824,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>82</v>
@@ -2843,7 +2847,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2866,13 +2870,13 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2923,7 +2927,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -2932,7 +2936,7 @@
         <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>94</v>
@@ -2946,7 +2950,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2969,16 +2973,16 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3028,7 +3032,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3037,7 +3041,7 @@
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -3051,7 +3055,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3077,13 +3081,13 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3133,7 +3137,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
